--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2979.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2979.xlsx
@@ -354,7 +354,7 @@
         <v>2.509511262378793</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.258536298030548</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2979.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2979.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195828804291152</v>
+        <v>1.727236390113831</v>
       </c>
       <c r="B1">
-        <v>2.509511262378793</v>
+        <v>2.640979766845703</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.813587427139282</v>
       </c>
       <c r="D1">
-        <v>2.258536298030548</v>
+        <v>3.17207932472229</v>
       </c>
       <c r="E1">
-        <v>1.187245937730429</v>
+        <v>2.956655502319336</v>
       </c>
     </row>
   </sheetData>
